--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Projekt_JM\Project-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1F06FA-CC35-4041-B007-73F921FE2089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,13 +37,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G64" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I64" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B65" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="170">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1301,12 +1300,15 @@
   </si>
   <si>
     <t>WASTE-TO-ENG</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1651,12 +1653,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
-    <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal_MIN" xfId="5"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
-    <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normalny 10" xfId="3"/>
+    <cellStyle name="Normalny 2" xfId="4"/>
     <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1673,7 +1675,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -1808,9 +1810,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1848,9 +1850,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1885,7 +1887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,7 +1922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2093,35 +2095,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="18" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2129,7 +2131,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2140,7 +2142,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2149,7 +2151,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2167,7 +2169,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2260,7 +2262,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2274,7 +2276,7 @@
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>$M$55</f>
+        <f t="shared" ref="E7:E25" si="0">$M$55</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F7" s="21">
@@ -2309,13 +2311,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="0">C67</f>
+        <f t="shared" ref="B8:C8" si="1">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D8" s="30" t="str">
@@ -2323,7 +2325,7 @@
         <v>BC</v>
       </c>
       <c r="E8" s="30" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F8" s="58">
@@ -2342,7 +2344,7 @@
         <v>14600</v>
       </c>
       <c r="K8" s="57">
-        <f t="shared" ref="K8:K27" si="1">J8</f>
+        <f t="shared" ref="K8:K27" si="2">J8</f>
         <v>14600</v>
       </c>
       <c r="L8" s="40">
@@ -2358,13 +2360,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="2">C68</f>
+        <f t="shared" ref="B9:C9" si="3">C68</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
@@ -2372,7 +2374,7 @@
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F9" s="21">
@@ -2391,7 +2393,7 @@
         <v>9200</v>
       </c>
       <c r="K9" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9200</v>
       </c>
       <c r="L9" s="36">
@@ -2407,13 +2409,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="3">C69</f>
+        <f t="shared" ref="B10:C10" si="4">C69</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
@@ -2421,7 +2423,7 @@
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F10" s="37">
@@ -2440,7 +2442,7 @@
         <v>7400</v>
       </c>
       <c r="K10" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7400</v>
       </c>
       <c r="L10" s="40">
@@ -2456,13 +2458,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="4">C70</f>
+        <f t="shared" ref="B11:C11" si="5">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
@@ -2470,7 +2472,7 @@
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F11" s="21">
@@ -2489,7 +2491,7 @@
         <v>10100</v>
       </c>
       <c r="K11" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10100</v>
       </c>
       <c r="L11" s="36">
@@ -2505,13 +2507,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="str">
-        <f>C71</f>
+        <f t="shared" ref="B12:C24" si="6">C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f>D71</f>
+        <f t="shared" si="6"/>
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
@@ -2519,7 +2521,7 @@
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F12" s="58">
@@ -2538,7 +2540,7 @@
         <v>14600</v>
       </c>
       <c r="K12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14600</v>
       </c>
       <c r="L12" s="40">
@@ -2554,13 +2556,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="str">
-        <f>C72</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f>D72</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
@@ -2568,7 +2570,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F13" s="21">
@@ -2587,7 +2589,7 @@
         <v>3300</v>
       </c>
       <c r="K13" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
       <c r="L13" s="36">
@@ -2603,13 +2605,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="37" t="str">
-        <f>C73</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f>D73</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
@@ -2617,7 +2619,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F14" s="58">
@@ -2636,7 +2638,7 @@
         <v>6000</v>
       </c>
       <c r="K14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="L14" s="37">
@@ -2652,13 +2654,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="str">
-        <f>C74</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>D74</f>
+        <f t="shared" si="6"/>
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
@@ -2666,7 +2668,7 @@
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F15" s="21">
@@ -2685,7 +2687,7 @@
         <v>2200</v>
       </c>
       <c r="K15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
       <c r="L15" s="21">
@@ -2701,13 +2703,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="str">
-        <f>C75</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
       </c>
       <c r="C16" s="37" t="str">
-        <f>D75</f>
+        <f t="shared" si="6"/>
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
@@ -2715,7 +2717,7 @@
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F16" s="60">
@@ -2730,12 +2732,12 @@
       <c r="I16" s="38">
         <v>0.9</v>
       </c>
-      <c r="J16" s="60">
-        <v>20200</v>
-      </c>
-      <c r="K16" s="60">
-        <f t="shared" si="1"/>
-        <v>20200</v>
+      <c r="J16">
+        <v>25600</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>25600</v>
       </c>
       <c r="L16" s="37">
         <v>380</v>
@@ -2750,13 +2752,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="str">
-        <f>C76</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>D76</f>
+        <f t="shared" si="6"/>
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
@@ -2764,7 +2766,7 @@
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F17" s="60">
@@ -2798,13 +2800,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="str">
-        <f>C77</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
       </c>
       <c r="C18" s="37" t="str">
-        <f>D77</f>
+        <f t="shared" si="6"/>
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
@@ -2812,7 +2814,7 @@
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F18" s="37">
@@ -2831,7 +2833,7 @@
         <v>5800</v>
       </c>
       <c r="K18" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5800</v>
       </c>
       <c r="L18" s="37">
@@ -2847,13 +2849,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="str">
-        <f>C78</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f>D78</f>
+        <f t="shared" si="6"/>
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
@@ -2861,7 +2863,7 @@
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F19" s="58">
@@ -2880,7 +2882,7 @@
         <v>9400</v>
       </c>
       <c r="K19" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9400</v>
       </c>
       <c r="L19" s="21">
@@ -2896,13 +2898,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="str">
-        <f>C79</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
       </c>
       <c r="C20" s="37" t="str">
-        <f>D79</f>
+        <f t="shared" si="6"/>
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
@@ -2910,7 +2912,7 @@
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F20" s="37">
@@ -2929,7 +2931,7 @@
         <v>31500</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31500</v>
       </c>
       <c r="L20" s="37">
@@ -2945,13 +2947,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="str">
-        <f>C80</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f>D80</f>
+        <f t="shared" si="6"/>
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
@@ -2959,7 +2961,7 @@
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F21" s="21">
@@ -2974,12 +2976,12 @@
       <c r="I21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="58">
-        <v>3100</v>
-      </c>
-      <c r="K21" s="58">
-        <f t="shared" si="1"/>
-        <v>3100</v>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="L21" s="21">
         <v>70</v>
@@ -2994,13 +2996,13 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="str">
-        <f>C81</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
       </c>
       <c r="C22" s="37" t="str">
-        <f>D81</f>
+        <f t="shared" si="6"/>
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
@@ -3008,7 +3010,7 @@
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F22" s="37">
@@ -3023,12 +3025,11 @@
       <c r="I22" s="38">
         <v>1</v>
       </c>
-      <c r="J22" s="58">
-        <v>4000</v>
-      </c>
-      <c r="K22" s="58">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+      <c r="J22">
+        <v>3700</v>
+      </c>
+      <c r="K22">
+        <v>3700</v>
       </c>
       <c r="L22" s="37">
         <v>90</v>
@@ -3039,17 +3040,17 @@
       <c r="N22" s="37">
         <v>25</v>
       </c>
-      <c r="O22" s="38">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="str">
-        <f>C82</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f>D82</f>
+        <f t="shared" si="6"/>
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
@@ -3057,7 +3058,7 @@
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F23" s="21">
@@ -3076,7 +3077,7 @@
         <v>12100</v>
       </c>
       <c r="K23" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12100</v>
       </c>
       <c r="L23" s="21">
@@ -3092,13 +3093,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="str">
-        <f>C83</f>
+        <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
       </c>
       <c r="C24" s="37" t="str">
-        <f>D83</f>
+        <f t="shared" si="6"/>
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
@@ -3106,7 +3107,7 @@
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F24" s="37">
@@ -3125,7 +3126,7 @@
         <v>14100</v>
       </c>
       <c r="K24" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14100</v>
       </c>
       <c r="L24" s="37">
@@ -3141,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="str">
         <f>C85</f>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3155,7 +3156,7 @@
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
-        <f>$M$55</f>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
       <c r="F25" s="21">
@@ -3174,7 +3175,7 @@
         <v>7200</v>
       </c>
       <c r="K25" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
       <c r="L25" s="21">
@@ -3190,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
         <v>163</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>74454</v>
       </c>
       <c r="K26" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74454</v>
       </c>
       <c r="L26" s="21">
@@ -3235,17 +3236,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
-        <f t="shared" ref="B27:C27" si="5">C86</f>
+        <f t="shared" ref="B27:C27" si="7">C86</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Biomass</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" ref="D27" si="6">C57</f>
+        <f t="shared" ref="D27" si="8">C57</f>
         <v>BIOM</v>
       </c>
       <c r="E27" s="3" t="str">
@@ -3268,7 +3269,7 @@
         <v>11500</v>
       </c>
       <c r="K27" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="L27" s="3">
@@ -3284,14 +3285,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="47" t="s">
@@ -3301,7 +3302,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="49"/>
     </row>
-    <row r="33" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="51" t="str">
         <f>C88</f>
         <v>MIN_WIND-OFF</v>
@@ -3361,13 +3362,13 @@
       <c r="G35" s="53"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="55" t="str">
-        <f t="shared" ref="B36:C39" si="7">C89</f>
+        <f t="shared" ref="B36:C39" si="9">C89</f>
         <v>IMP_URAN</v>
       </c>
       <c r="C36" s="55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Nuclear Fuel Import</v>
       </c>
       <c r="D36" s="37" t="str">
@@ -3380,17 +3381,17 @@
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>MIN_GEO</v>
       </c>
       <c r="C37" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Geothermal Mining</v>
       </c>
       <c r="D37" s="21" t="str">
-        <f t="shared" ref="D37:D40" si="8">C52</f>
+        <f t="shared" ref="D37:D40" si="10">C52</f>
         <v>GEO</v>
       </c>
       <c r="E37" s="21"/>
@@ -3399,17 +3400,17 @@
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>MIN_BIOG-AGR</v>
       </c>
       <c r="C38" s="55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D38" s="37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BIOG-AGR</v>
       </c>
       <c r="E38" s="37"/>
@@ -3418,17 +3419,17 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>MIN_BIOG-WWTP</v>
       </c>
       <c r="C39" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Biogas Supply</v>
       </c>
       <c r="D39" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E39" s="21"/>
@@ -3437,7 +3438,7 @@
       </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="55" t="str">
         <f>C94</f>
         <v>MIN_BIOG_LFILL</v>
@@ -3447,7 +3448,7 @@
         <v>Biogas Supply</v>
       </c>
       <c r="D40" s="37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E40" s="37"/>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="55" t="s">
         <v>161</v>
       </c>
@@ -3472,7 +3473,7 @@
       </c>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="56" t="str">
         <f>C95</f>
         <v>MIN_BIOM</v>
@@ -3491,7 +3492,7 @@
       </c>
       <c r="G42" s="45"/>
     </row>
-    <row r="45" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
@@ -3513,7 +3514,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3536,7 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
@@ -3669,7 +3670,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
@@ -3703,7 +3704,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3737,7 +3738,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3771,7 +3772,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3806,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="24" t="s">
         <v>24</v>
       </c>
@@ -3871,7 +3872,7 @@
       <c r="R56" s="65"/>
       <c r="S56" s="65"/>
     </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
         <v>24</v>
       </c>
@@ -3897,18 +3898,18 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="60" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
         <v>27</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="21" t="s">
         <v>34</v>
       </c>
@@ -3994,7 +3995,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="37" t="s">
         <v>34</v>
       </c>
@@ -4016,7 +4017,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
@@ -4038,7 +4039,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
@@ -4060,7 +4061,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
@@ -4082,7 +4083,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
@@ -4126,7 +4127,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
@@ -4170,7 +4171,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
@@ -4192,7 +4193,7 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
@@ -4214,7 +4215,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
@@ -4236,7 +4237,7 @@
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
@@ -4258,7 +4259,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
@@ -4280,7 +4281,7 @@
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
@@ -4302,7 +4303,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
@@ -4324,7 +4325,7 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
@@ -4346,7 +4347,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
@@ -4368,7 +4369,7 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
@@ -4390,7 +4391,7 @@
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
@@ -4412,7 +4413,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="37" t="s">
         <v>34</v>
       </c>
@@ -4434,7 +4435,7 @@
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="46" t="s">
         <v>160</v>
       </c>
@@ -4446,7 +4447,7 @@
       <c r="H87" s="46"/>
       <c r="I87" s="46"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="21" t="s">
         <v>37</v>
       </c>
@@ -4466,7 +4467,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37" t="s">
         <v>36</v>
       </c>
@@ -4486,7 +4487,7 @@
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>37</v>
       </c>
@@ -4506,7 +4507,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="37" t="s">
         <v>37</v>
       </c>
@@ -4526,7 +4527,7 @@
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>37</v>
       </c>
@@ -4546,7 +4547,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>36</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -4586,7 +4587,7 @@
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="45" t="s">
         <v>37</v>
       </c>
@@ -4606,7 +4607,7 @@
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
     </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="61"/>
       <c r="C98" s="62" t="s">
         <v>81</v>
@@ -4615,7 +4616,7 @@
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>38</v>
       </c>
@@ -4645,7 +4646,7 @@
       <c r="E100" s="41"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4659,9 +4660,9 @@
       <c r="E101" s="21"/>
       <c r="F101" s="35"/>
     </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="37" t="str">
-        <f t="shared" ref="B102:B108" si="9">C67</f>
+        <f t="shared" ref="B102:B108" si="11">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C102" s="64" t="s">
@@ -4673,9 +4674,9 @@
       <c r="E102" s="37"/>
       <c r="F102" s="39"/>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -4687,9 +4688,9 @@
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C104" s="37" t="s">
@@ -4701,9 +4702,9 @@
       </c>
       <c r="F104" s="37"/>
     </row>
-    <row r="105" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C105" s="21" t="s">
@@ -4715,9 +4716,9 @@
       </c>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C106" s="37" t="s">
@@ -4729,9 +4730,9 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C107" s="21" t="s">
@@ -4743,9 +4744,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C108" s="37" t="s">
@@ -4757,7 +4758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="37" t="s">
         <v>163</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="45" t="str">
         <f>C74</f>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4794,14 +4795,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5000,23 +4999,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5041,9 +5037,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Projekt_JM\Project-main\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679AD6F-AB3C-43B5-ABA9-6B6B21A89580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="1" shapeId="0">
+    <comment ref="F48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="1" shapeId="0">
+    <comment ref="G48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="1" shapeId="0">
+    <comment ref="H48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="1" shapeId="0">
+    <comment ref="I48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
+    <comment ref="G64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="1" shapeId="0">
+    <comment ref="I64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="1" shapeId="0">
+    <comment ref="B65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -793,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="170">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1308,7 +1310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1520,7 +1522,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,17 +1650,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normal_MIN" xfId="5"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="3"/>
-    <cellStyle name="Normalny 2" xfId="4"/>
+    <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1675,7 +1674,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -1810,9 +1809,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1850,9 +1849,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1887,7 +1886,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,7 +1921,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2095,35 +2094,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="18" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2131,7 +2130,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2142,7 +2141,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2151,7 +2150,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2169,7 +2168,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2261,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2311,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2360,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C68</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2409,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C69</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2458,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2507,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C24" si="6">C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2556,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2605,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2654,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2703,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2752,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2800,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2849,7 +2848,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2898,7 +2897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -2947,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -2996,7 +2995,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3044,7 +3043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3093,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3142,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
         <f>C85</f>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3191,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>163</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="str">
         <f t="shared" ref="B27:C27" si="7">C86</f>
         <v>ELE_NEW_BIOM</v>
@@ -3285,14 +3284,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="47" t="s">
@@ -3302,7 +3301,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="49"/>
     </row>
-    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="51" t="str">
         <f>C88</f>
         <v>MIN_WIND-OFF</v>
@@ -3362,7 +3361,7 @@
       <c r="G35" s="53"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f t="shared" ref="B36:C39" si="9">C89</f>
         <v>IMP_URAN</v>
@@ -3381,7 +3380,7 @@
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="51" t="str">
         <f t="shared" si="9"/>
         <v>MIN_GEO</v>
@@ -3400,7 +3399,7 @@
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MIN_BIOG-AGR</v>
@@ -3419,7 +3418,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="51" t="str">
         <f t="shared" si="9"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3438,7 +3437,7 @@
       </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="str">
         <f>C94</f>
         <v>MIN_BIOG_LFILL</v>
@@ -3457,7 +3456,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
         <v>161</v>
       </c>
@@ -3473,7 +3472,7 @@
       </c>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="56" t="str">
         <f>C95</f>
         <v>MIN_BIOM</v>
@@ -3492,7 +3491,7 @@
       </c>
       <c r="G42" s="45"/>
     </row>
-    <row r="45" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
@@ -3514,7 +3513,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
@@ -3536,7 +3535,7 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
@@ -3670,7 +3669,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3703,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3738,7 +3737,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3772,7 +3771,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -3806,7 +3805,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="24" t="s">
         <v>24</v>
       </c>
@@ -3863,16 +3862,24 @@
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-    </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+    </row>
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
         <v>24</v>
       </c>
@@ -3898,18 +3905,18 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="60" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>27</v>
       </c>
@@ -3921,7 +3928,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
@@ -3947,7 +3954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>34</v>
       </c>
@@ -3995,7 +4002,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>34</v>
       </c>
@@ -4017,7 +4024,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
@@ -4039,7 +4046,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
@@ -4061,7 +4068,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
@@ -4083,7 +4090,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
@@ -4105,7 +4112,7 @@
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
@@ -4127,7 +4134,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
@@ -4149,7 +4156,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
@@ -4171,7 +4178,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
@@ -4193,7 +4200,7 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
@@ -4215,7 +4222,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
@@ -4237,7 +4244,7 @@
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
@@ -4259,7 +4266,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
@@ -4281,7 +4288,7 @@
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
@@ -4303,7 +4310,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
@@ -4325,7 +4332,7 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
@@ -4347,7 +4354,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
@@ -4369,7 +4376,7 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
@@ -4391,7 +4398,7 @@
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
@@ -4413,7 +4420,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="37" t="s">
         <v>34</v>
       </c>
@@ -4435,7 +4442,7 @@
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="46" t="s">
         <v>160</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="H87" s="46"/>
       <c r="I87" s="46"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>37</v>
       </c>
@@ -4467,7 +4474,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
         <v>36</v>
       </c>
@@ -4487,7 +4494,7 @@
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
         <v>37</v>
       </c>
@@ -4507,7 +4514,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="37" t="s">
         <v>37</v>
       </c>
@@ -4527,7 +4534,7 @@
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
         <v>37</v>
       </c>
@@ -4547,7 +4554,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
         <v>36</v>
       </c>
@@ -4567,7 +4574,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -4587,7 +4594,7 @@
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="45" t="s">
         <v>37</v>
       </c>
@@ -4607,7 +4614,7 @@
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
     </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="61"/>
       <c r="C98" s="62" t="s">
         <v>81</v>
@@ -4616,7 +4623,7 @@
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>38</v>
       </c>
@@ -4646,7 +4653,7 @@
       <c r="E100" s="41"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4660,7 +4667,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="35"/>
     </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="37" t="str">
         <f t="shared" ref="B102:B108" si="11">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4674,7 +4681,7 @@
       <c r="E102" s="37"/>
       <c r="F102" s="39"/>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4688,7 +4695,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4702,7 +4709,7 @@
       </c>
       <c r="F104" s="37"/>
     </row>
-    <row r="105" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4716,7 +4723,7 @@
       </c>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4730,7 +4737,7 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4744,7 +4751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4758,7 +4765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="37" t="s">
         <v>163</v>
       </c>
@@ -4768,10 +4775,10 @@
       <c r="D109" s="37"/>
       <c r="E109" s="37"/>
       <c r="F109" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="45" t="str">
         <f>C74</f>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4795,12 +4802,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4999,20 +5008,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5037,18 +5053,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679AD6F-AB3C-43B5-ABA9-6B6B21A89580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED46191-C090-40C1-A7AD-B002F2452C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="169">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1299,9 +1299,6 @@
   </si>
   <si>
     <t>WASTE</t>
-  </si>
-  <si>
-    <t>WASTE-TO-ENG</t>
   </si>
   <si>
     <t>,</t>
@@ -2098,8 +2095,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3040,7 +3037,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3198,7 +3195,7 @@
         <v>164</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>86</v>
@@ -4802,14 +4799,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5008,27 +5003,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5053,9 +5041,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED46191-C090-40C1-A7AD-B002F2452C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B680D-6D7E-426B-86F6-9014DEC1B7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="169">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1292,9 +1292,6 @@
     <t>Waste-to-Energy Power Plant</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
     <t>Waste</t>
   </si>
   <si>
@@ -1302,6 +1299,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Import Waste</t>
   </si>
 </sst>
 </file>
@@ -2095,8 +2095,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2826,11 +2826,11 @@
         <v>1</v>
       </c>
       <c r="J18" s="58">
-        <v>5800</v>
+        <v>5564</v>
       </c>
       <c r="K18" s="58">
         <f t="shared" si="2"/>
-        <v>5800</v>
+        <v>5564</v>
       </c>
       <c r="L18" s="37">
         <v>220</v>
@@ -2875,11 +2875,11 @@
         <v>1</v>
       </c>
       <c r="J19" s="58">
-        <v>9400</v>
+        <v>14980</v>
       </c>
       <c r="K19" s="58">
         <f t="shared" si="2"/>
-        <v>9400</v>
+        <v>14980</v>
       </c>
       <c r="L19" s="21">
         <v>400</v>
@@ -3037,7 +3037,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>164</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>86</v>
@@ -3458,10 +3458,10 @@
         <v>161</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="37">
@@ -3847,10 +3847,10 @@
         <v>24</v>
       </c>
       <c r="C56" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>25</v>
@@ -3863,10 +3863,10 @@
         <v>24</v>
       </c>
       <c r="M56" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N56" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="N56" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="O56" s="32" t="s">
         <v>25</v>
@@ -4611,7 +4611,7 @@
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
     </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="61"/>
       <c r="C98" s="62" t="s">
         <v>81</v>
@@ -4620,7 +4620,7 @@
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
@@ -4638,8 +4638,11 @@
       <c r="F99" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>38</v>
       </c>
@@ -4650,7 +4653,7 @@
       <c r="E100" s="41"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4663,8 +4666,9 @@
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="35"/>
-    </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="35"/>
+    </row>
+    <row r="102" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="37" t="str">
         <f t="shared" ref="B102:B108" si="11">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4677,8 +4681,9 @@
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="39"/>
-    </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="39"/>
+    </row>
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4691,8 +4696,9 @@
       </c>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
-    </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="21"/>
+    </row>
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4705,8 +4711,9 @@
         <v>94</v>
       </c>
       <c r="F104" s="37"/>
-    </row>
-    <row r="105" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="37"/>
+    </row>
+    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4719,8 +4726,9 @@
         <v>94</v>
       </c>
       <c r="F105" s="21"/>
-    </row>
-    <row r="106" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="21"/>
+    </row>
+    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4733,8 +4741,9 @@
         <v>12</v>
       </c>
       <c r="F106" s="37"/>
-    </row>
-    <row r="107" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="37"/>
+    </row>
+    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4747,8 +4756,9 @@
       <c r="F107" s="21">
         <v>56</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="21"/>
+    </row>
+    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4761,8 +4771,9 @@
       <c r="F108" s="37">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="37"/>
+    </row>
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="37" t="s">
         <v>163</v>
       </c>
@@ -4771,11 +4782,12 @@
       </c>
       <c r="D109" s="37"/>
       <c r="E109" s="37"/>
-      <c r="F109" s="37">
+      <c r="F109" s="37"/>
+      <c r="G109" s="37">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="45" t="str">
         <f>C74</f>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4788,6 +4800,7 @@
       <c r="F110" s="45">
         <v>56</v>
       </c>
+      <c r="G110" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
